--- a/content/plataformes/dadesref/entitats/Secretaries.xlsx
+++ b/content/plataformes/dadesref/entitats/Secretaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/11.Secretaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\11.Secretaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{4DBFBA37-82C6-4BCD-952D-353A91204E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{178F5E46-CAAB-4F11-942B-CFBC739EF7E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0E189B-C887-4DC5-89E1-0B2086EFB063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Secretaries" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Departament d'Interior</t>
   </si>
   <si>
-    <t>Secretaria d'Acció Exterior del Govern</t>
-  </si>
-  <si>
     <t>Secretaria General d'Economia i Hisenda</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Secretaria de Telecomunicacions i Transformació Digital</t>
+  </si>
+  <si>
+    <t>Secretaria d'Acció Exterior del Govern i de la Unió Europea</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>19781</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>19033</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
@@ -836,7 +836,7 @@
         <v>560</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
@@ -892,7 +892,7 @@
         <v>21654</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
@@ -906,7 +906,7 @@
         <v>629</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
@@ -920,7 +920,7 @@
         <v>556</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -934,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
@@ -1018,7 +1018,7 @@
         <v>2811</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3">
         <v>2803</v>
@@ -1060,13 +1060,13 @@
         <v>3399</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3">
         <v>3392</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,13 +1074,13 @@
         <v>12660</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3">
         <v>3392</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
         <v>21671</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3">
         <v>3392</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,13 +1102,13 @@
         <v>21702</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3">
         <v>3392</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,7 +1144,7 @@
         <v>21708</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3">
         <v>4163</v>
@@ -1158,7 +1158,7 @@
         <v>11291</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3">
         <v>4163</v>
@@ -1178,7 +1178,7 @@
         <v>13757</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1192,7 +1192,7 @@
         <v>13757</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
         <v>13757</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,13 +1228,13 @@
         <v>19776</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3">
         <v>19769</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,13 +1242,13 @@
         <v>13801</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3">
         <v>19769</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,13 +1256,13 @@
         <v>19777</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3">
         <v>19772</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,13 +1270,13 @@
         <v>19787</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3">
         <v>19772</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1284,13 +1284,13 @@
         <v>19026</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3">
         <v>19772</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1298,13 +1298,13 @@
         <v>1363</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3">
         <v>19772</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1318,7 +1318,7 @@
         <v>19774</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1332,7 +1332,7 @@
         <v>19774</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,13 +1340,13 @@
         <v>19779</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3">
         <v>19774</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1354,13 +1354,13 @@
         <v>19780</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="3">
         <v>19775</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
         <v>19775</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,13 +1382,13 @@
         <v>21662</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3">
         <v>19775</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>19775</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,13 +1410,13 @@
         <v>21649</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="3">
         <v>21647</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,13 +1424,13 @@
         <v>21675</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="3">
         <v>21647</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,13 +1438,13 @@
         <v>21674</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="6">
         <v>21647</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1452,13 +1452,13 @@
         <v>15728</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3">
         <v>21648</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,26 +1503,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns1:PublishingStartDate" minOccurs="0"/>
-                <xsd:element ref="ns1:PublishingExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1530,17 +1539,76 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="PublishingStartDate" ma:index="8" nillable="true" ma:displayName="Data d'inici de la planificació" ma:description="Data d'inici de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina començarà a aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingStartDate">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="PublishingExpirationDate" ma:index="9" nillable="true" ma:displayName="Data de finalització de la planificació" ma:description="Data de finalització de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina deixarà d'aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingExpirationDate">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1553,8 +1621,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1644,41 +1712,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1692,4 +1734,16 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E5150A-9305-460E-B7F0-5149679B0FE3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/plataformes/dadesref/entitats/Secretaries.xlsx
+++ b/content/plataformes/dadesref/entitats/Secretaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\11.Secretaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0E189B-C887-4DC5-89E1-0B2086EFB063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79873B7-E97D-4BEE-9547-3F90362960B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Departament de la Presidència</t>
   </si>
   <si>
-    <t>Secretaria de Transformació Educativa</t>
-  </si>
-  <si>
     <t>Departament d'Educació</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Secretaria d'Acció Exterior del Govern i de la Unió Europea</t>
+  </si>
+  <si>
+    <t>Secretaria de Polítiques Educatives</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>19781</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>19033</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
@@ -836,7 +836,7 @@
         <v>560</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
@@ -892,7 +892,7 @@
         <v>21654</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
@@ -906,7 +906,7 @@
         <v>629</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
@@ -920,7 +920,7 @@
         <v>556</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -934,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
@@ -962,13 +962,13 @@
         <v>15417</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3">
         <v>1599</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,13 +976,13 @@
         <v>1606</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
         <v>1599</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -990,13 +990,13 @@
         <v>15755</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3">
         <v>2221</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1004,13 +1004,13 @@
         <v>2228</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3">
         <v>2221</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1018,13 +1018,13 @@
         <v>2811</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3">
         <v>2803</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1038,7 +1038,7 @@
         <v>2803</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>2803</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1060,13 +1060,13 @@
         <v>3399</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3">
         <v>3392</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,13 +1074,13 @@
         <v>12660</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3">
         <v>3392</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
         <v>21671</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="3">
         <v>3392</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,13 +1102,13 @@
         <v>21702</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="3">
         <v>3392</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,13 +1116,13 @@
         <v>18120</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3">
         <v>4163</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1130,13 +1130,13 @@
         <v>4169</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3">
         <v>4163</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,13 +1144,13 @@
         <v>21708</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3">
         <v>4163</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1158,13 +1158,13 @@
         <v>11291</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3">
         <v>4163</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1172,13 +1172,13 @@
         <v>15771</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3">
         <v>13757</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1192,7 +1192,7 @@
         <v>13757</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,13 +1200,13 @@
         <v>13763</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3">
         <v>13757</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1214,13 +1214,13 @@
         <v>15650</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3">
         <v>13760</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,13 +1228,13 @@
         <v>19776</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="3">
         <v>19769</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,13 +1242,13 @@
         <v>13801</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3">
         <v>19769</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,13 +1256,13 @@
         <v>19777</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>19772</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,13 +1270,13 @@
         <v>19787</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3">
         <v>19772</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1284,13 +1284,13 @@
         <v>19026</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3">
         <v>19772</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1298,13 +1298,13 @@
         <v>1363</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3">
         <v>19772</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1318,7 +1318,7 @@
         <v>19774</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1332,7 +1332,7 @@
         <v>19774</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,13 +1340,13 @@
         <v>19779</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3">
         <v>19774</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1354,13 +1354,13 @@
         <v>19780</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="3">
         <v>19775</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
         <v>19775</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,13 +1382,13 @@
         <v>21662</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="3">
         <v>19775</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>19775</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,13 +1410,13 @@
         <v>21649</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="3">
         <v>21647</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,13 +1424,13 @@
         <v>21675</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="3">
         <v>21647</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,13 +1438,13 @@
         <v>21674</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="6">
         <v>21647</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1452,13 +1452,13 @@
         <v>15728</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="3">
         <v>21648</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,16 +1503,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
@@ -1711,6 +1701,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1721,6 +1721,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E5150A-9305-460E-B7F0-5149679B0FE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1732,12 +1751,9 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E5150A-9305-460E-B7F0-5149679B0FE3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/content/plataformes/dadesref/entitats/Secretaries.xlsx
+++ b/content/plataformes/dadesref/entitats/Secretaries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\11.Secretaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/GovernanaArquitecturaCloudiSI-60_ARQDades/Documents compartits/60_ARQ Dades/20 Cataleg/60 Modelatge/11.Secretaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79873B7-E97D-4BEE-9547-3F90362960B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F79873B7-E97D-4BEE-9547-3F90362960B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375B6E70-058E-46D8-81E5-9B05508D282D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1152" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Secretaries" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>Nom</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Secretaries</t>
   </si>
   <si>
-    <t>Secretaria General de la Presidència</t>
-  </si>
-  <si>
     <t>Secretaria de Mesures Penals, Reinserció i Atenció a la Víctima</t>
   </si>
   <si>
@@ -92,18 +89,12 @@
     <t>Departament d'Educació</t>
   </si>
   <si>
-    <t>Secretaria General d'Educació</t>
-  </si>
-  <si>
     <t>Secretaria de Política Lingüística</t>
   </si>
   <si>
     <t>Departament de Cultura</t>
   </si>
   <si>
-    <t>Secretaria General de Cultura</t>
-  </si>
-  <si>
     <t>Departament de Salut</t>
   </si>
   <si>
@@ -113,24 +104,12 @@
     <t>Departament d'Acció Climàtica, Alimentació i Agenda Rural</t>
   </si>
   <si>
-    <t>Secretaria General d'Acció Climàtica, Alimentació i Agenda Rural</t>
-  </si>
-  <si>
     <t>Secretaria per a l'Administració de Justícia</t>
   </si>
   <si>
-    <t>Secretaria General de Justícia</t>
-  </si>
-  <si>
-    <t>Secretaria General d'Interior</t>
-  </si>
-  <si>
     <t>Departament d'Interior</t>
   </si>
   <si>
-    <t>Secretaria General d'Economia i Hisenda</t>
-  </si>
-  <si>
     <t>Departament d'Economia i Hisenda</t>
   </si>
   <si>
@@ -140,21 +119,12 @@
     <t>Departament de Drets Socials</t>
   </si>
   <si>
-    <t>Secretaria General de Drets Socials</t>
-  </si>
-  <si>
-    <t>Secretaria General d'Empresa i Treball</t>
-  </si>
-  <si>
     <t>Departament d'Empresa i Treball</t>
   </si>
   <si>
     <t>Secretaria de Treball</t>
   </si>
   <si>
-    <t>Secretaria General d'Igualtat i Feminismes</t>
-  </si>
-  <si>
     <t>Departament d'Igualtat i Feminismes</t>
   </si>
   <si>
@@ -164,9 +134,6 @@
     <t>Secretaria d'Igualtats</t>
   </si>
   <si>
-    <t>Secretaria General de Recerca i Universitats</t>
-  </si>
-  <si>
     <t>Departament de Recerca i Universitats</t>
   </si>
   <si>
@@ -197,9 +164,6 @@
     <t>Intervenció General</t>
   </si>
   <si>
-    <t>Secretaria General de Salut</t>
-  </si>
-  <si>
     <t>Secretaria d'Administració i Funció Pública</t>
   </si>
   <si>
@@ -218,24 +182,15 @@
     <t>Secretaria de Governs Locals i Relacions amb l'Aran</t>
   </si>
   <si>
-    <t>Secretaria General de Territori</t>
-  </si>
-  <si>
     <t>Secretaria de Mobilitat i Infraestructures</t>
   </si>
   <si>
     <t>Secretaria de Territori, Urbanisme i Agenda Urbana</t>
   </si>
   <si>
-    <t>Secretaria General d'Acció Exterior i Unió Europea</t>
-  </si>
-  <si>
     <t>Secretaria d'Habitatge</t>
   </si>
   <si>
-    <t>22581</t>
-  </si>
-  <si>
     <t>Secretaria de Telecomunicacions i Transformació Digital</t>
   </si>
   <si>
@@ -243,6 +198,9 @@
   </si>
   <si>
     <t>Secretaria de Polítiques Educatives</t>
+  </si>
+  <si>
+    <t>Secretaria General</t>
   </si>
 </sst>
 </file>
@@ -367,14 +325,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,7 +741,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -797,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -808,13 +766,13 @@
         <v>19781</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -822,27 +780,27 @@
         <v>19033</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="15">
         <v>560</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -856,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -864,13 +822,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -878,97 +836,97 @@
         <v>10828</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>21654</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="16">
         <v>629</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>556</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>66</v>
+      <c r="A14" s="16">
+        <v>22581</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="15">
         <v>15417</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>69</v>
+      <c r="B15" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C15" s="3">
         <v>1599</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,13 +934,13 @@
         <v>1606</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
         <v>1599</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -990,13 +948,13 @@
         <v>15755</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>2221</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1004,13 +962,13 @@
         <v>2228</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3">
         <v>2221</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1018,13 +976,13 @@
         <v>2811</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3">
         <v>2803</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1038,11 +996,11 @@
         <v>2803</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="15">
         <v>19029</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1052,21 +1010,21 @@
         <v>2803</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="15">
         <v>3399</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3">
         <v>3392</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,27 +1032,27 @@
         <v>12660</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3">
         <v>3392</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="16">
         <v>21671</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3">
         <v>3392</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,13 +1060,13 @@
         <v>21702</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3">
         <v>3392</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,55 +1074,55 @@
         <v>18120</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3">
         <v>4163</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="15">
         <v>4169</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3">
         <v>4163</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <v>21708</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3">
         <v>4163</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="16">
         <v>11291</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>51</v>
+      <c r="B29" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C29" s="3">
         <v>4163</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1172,13 +1130,13 @@
         <v>15771</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3">
         <v>13757</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1186,13 +1144,13 @@
         <v>20919</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3">
         <v>13757</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,27 +1158,27 @@
         <v>13763</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3">
         <v>13757</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="15">
         <v>15650</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3">
         <v>13760</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,13 +1186,13 @@
         <v>19776</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3">
         <v>19769</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,13 +1200,13 @@
         <v>13801</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3">
         <v>19769</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,13 +1214,13 @@
         <v>19777</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3">
         <v>19772</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,41 +1228,41 @@
         <v>19787</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C37" s="3">
         <v>19772</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+      <c r="A38" s="16">
         <v>19026</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3">
         <v>19772</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+      <c r="A39" s="16">
         <v>1363</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>53</v>
+      <c r="B39" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C39" s="3">
         <v>19772</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1318,11 +1276,11 @@
         <v>19774</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="15">
         <v>20853</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -1332,7 +1290,7 @@
         <v>19774</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,27 +1298,27 @@
         <v>19779</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3">
         <v>19774</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="15">
         <v>19780</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3">
         <v>19775</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,7 +1332,7 @@
         <v>19775</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,13 +1340,13 @@
         <v>21662</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C45" s="3">
         <v>19775</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1402,67 +1360,67 @@
         <v>19775</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="15">
         <v>21649</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C47" s="3">
         <v>21647</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="15">
         <v>21675</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3">
         <v>21647</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="15">
         <v>21674</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C49" s="6">
         <v>21647</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="15">
         <v>15728</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3">
         <v>21648</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
+      <c r="A51" s="16">
         <v>99998</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -1476,7 +1434,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="15">
+      <c r="A52" s="16">
         <v>99999</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -1494,7 +1452,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C53:C760 A14" numberStoredAsText="1"/>
+    <ignoredError sqref="C53:C760" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1503,8 +1461,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="c4029641765743d9f3f822339dfb1a4a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb48281f5bf0bbe1ec1acda1c8ee6a0c" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
@@ -1542,7 +1519,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetes de la imatge" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1575,7 +1552,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartit amb" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1594,7 +1571,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="S'ha compartit amb detalls" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1611,8 +1588,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1701,45 +1678,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E5150A-9305-460E-B7F0-5149679B0FE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1756,10 +1695,29 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FDAA3AC-DF7A-4901-BD0D-6545F5475F4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/plataformes/dadesref/entitats/Secretaries.xlsx
+++ b/content/plataformes/dadesref/entitats/Secretaries.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpina\portal\content\plataformes\dadesref\entitats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/GovernanaArquitecturaCloudiSI-60_ARQDades/Documents compartits/60_ARQ Dades/20 Cataleg/60 Modelatge/11.Secretaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_B97F043B0E02FF9EFFB176E8BD49BEE46E1B596E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249BA3AF-186B-412F-86C7-ABA21C26BE57}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12000"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SECRETARIES" sheetId="1" r:id="rId1"/>
@@ -70,9 +71,6 @@
     <t>Secretaria del Govern</t>
   </si>
   <si>
-    <t>Secretaria d'Agenda Rural</t>
-  </si>
-  <si>
     <t>Secretaria de Mobilitat i Infraestructures</t>
   </si>
   <si>
@@ -149,13 +147,16 @@
   </si>
   <si>
     <t>Altres/Diversos</t>
+  </si>
+  <si>
+    <t>Gabinet del President o Presidenta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +312,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -493,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -636,6 +643,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -681,7 +697,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -698,12 +714,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -869,14 +886,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Taula1" displayName="Taula1" ref="A1:C50" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <sortState ref="A2:C48">
-    <sortCondition ref="A1:A48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taula1" displayName="Taula1" ref="A1:C50" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
+    <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="id_Secretaria" dataDxfId="2"/>
-    <tableColumn id="2" name="Nom_Secretaria" dataDxfId="1"/>
-    <tableColumn id="5" name="id_Departament" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_Secretaria" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom_Secretaria" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="id_Departament" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1144,12 +1162,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1157,7 +1177,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>11</v>
       </c>
@@ -1179,7 +1199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>14</v>
       </c>
@@ -1190,7 +1210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>556</v>
       </c>
@@ -1201,7 +1221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>560</v>
       </c>
@@ -1212,7 +1232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>629</v>
       </c>
@@ -1223,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>1363</v>
       </c>
@@ -1234,7 +1254,7 @@
         <v>19772</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>1606</v>
       </c>
@@ -1245,7 +1265,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>2228</v>
       </c>
@@ -1256,7 +1276,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>2558</v>
       </c>
@@ -1267,7 +1287,7 @@
         <v>23459</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>2811</v>
       </c>
@@ -1278,7 +1298,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>3399</v>
       </c>
@@ -1289,7 +1309,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>4169</v>
       </c>
@@ -1300,7 +1320,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>10828</v>
       </c>
@@ -1311,240 +1331,240 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="2">
-        <v>11291</v>
+        <v>12660</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" s="2">
-        <v>12660</v>
+        <v>13763</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="2">
+        <v>13801</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>13763</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C17" s="2">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="2">
-        <v>13801</v>
+        <v>13827</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2">
-        <v>19769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="2">
-        <v>13827</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>15417</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="2">
-        <v>15417</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>15650</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="2">
-        <v>15650</v>
+        <v>15728</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2">
-        <v>13760</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="2">
-        <v>15728</v>
+        <v>15771</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>21648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="2">
-        <v>15771</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>18120</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="2">
-        <v>18120</v>
-      </c>
-      <c r="B24" s="5" t="s">
+        <v>19026</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" s="2">
-        <v>19026</v>
+        <v>19029</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="2">
-        <v>19029</v>
+        <v>19033</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="2">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
       <c r="A27" s="2">
-        <v>19033</v>
+        <v>19035</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="2">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="2">
+        <v>19776</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>19769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="2">
+        <v>19777</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="2">
+        <v>19779</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>19774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="2">
+        <v>19780</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="2">
+        <v>19781</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>19035</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>19776</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2">
-        <v>19769</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>19777</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>19779</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="2">
-        <v>19774</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>19780</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="2">
-        <v>19781</v>
+        <v>19783</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="2">
-        <v>19783</v>
+        <v>19787</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15">
       <c r="A35" s="2">
-        <v>19787</v>
+        <v>19800</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19774</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15">
       <c r="A36" s="2">
-        <v>19800</v>
+        <v>20853</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>25</v>
@@ -1553,64 +1573,64 @@
         <v>19774</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" s="2">
-        <v>20853</v>
+        <v>20919</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="2">
-        <v>19774</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13757</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
       <c r="A38" s="2">
-        <v>20919</v>
+        <v>21649</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="2">
+        <v>21662</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="2">
-        <v>13757</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>21649</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C39" s="2">
-        <v>21647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" s="2">
-        <v>21662</v>
+        <v>21671</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
       <c r="A41" s="2">
-        <v>21671</v>
+        <v>21674</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" s="2">
-        <v>21674</v>
+        <v>21675</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>30</v>
@@ -1619,94 +1639,95 @@
         <v>21647</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15">
       <c r="A43" s="2">
-        <v>21675</v>
+        <v>21702</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="2">
-        <v>21647</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15">
       <c r="A44" s="2">
-        <v>21702</v>
+        <v>21708</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15">
       <c r="A45" s="2">
-        <v>21708</v>
+        <v>22581</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="2">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>22581</v>
-      </c>
-      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" s="3">
+        <v>23477</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="2">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="3">
+        <v>23515</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3">
+        <v>23458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="6">
+        <v>99998</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="6">
+        <v>99998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="7">
+        <v>99999</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="7">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="3">
+        <v>18092</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>23477</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>23515</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3">
-        <v>23458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>99998</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="6">
-        <v>99998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>99999</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="7">
-        <v>99999</v>
-      </c>
-    </row>
+    <row r="51" spans="1:3" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1717,6 +1738,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="13" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="975764f6ad4851f62dc57c3657271973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a09df0a8653da91c10cb7921c3578835" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
@@ -1933,65 +1973,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6932AA34-EEE9-46A8-B315-01D872EA9A96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC44F157-837C-4048-99B0-4E74975916ED}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C398D0DD-38C4-4224-A574-12E568343033}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C398D0DD-38C4-4224-A574-12E568343033}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC44F157-837C-4048-99B0-4E74975916ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6932AA34-EEE9-46A8-B315-01D872EA9A96}"/>
 </file>
--- a/content/plataformes/dadesref/entitats/Secretaries.xlsx
+++ b/content/plataformes/dadesref/entitats/Secretaries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/GovernanaArquitecturaCloudiSI-60_ARQDades/Documents compartits/60_ARQ Dades/20 Cataleg/60 Modelatge/11.Secretaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_B97F043B0E02FF9EFFB176E8BD49BEE46E1B596E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249BA3AF-186B-412F-86C7-ABA21C26BE57}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_B97F043B0E02FF9EFFB176E8BD49BEE46E1B596E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279CD629-B323-46EB-9E6A-6AD9604ABCC5}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>Secretaria de Mobilitat i Infraestructures</t>
   </si>
   <si>
-    <t>Secretaria d'Acció Exterior del Govern i de la Unió Europea</t>
+    <t>Secretaria d’Afers Europeus, Multilaterals i de Cooperació al Desenvolupament</t>
   </si>
   <si>
     <t>Secretaria d'Atenció Sanitària i Participació</t>
@@ -86,6 +86,9 @@
     <t>Secretaria per a l'Administració de Justícia</t>
   </si>
   <si>
+    <t>Gabinet del President o Presidenta</t>
+  </si>
+  <si>
     <t>Secretaria de Transició Ecològica</t>
   </si>
   <si>
@@ -147,16 +150,13 @@
   </si>
   <si>
     <t>Altres/Diversos</t>
-  </si>
-  <si>
-    <t>Gabinet del President o Presidenta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +318,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -500,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -615,43 +621,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -697,30 +666,38 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -786,7 +763,7 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -807,7 +784,7 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -828,7 +805,7 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -849,7 +826,7 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -870,7 +847,7 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -888,8 +865,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taula1" displayName="Taula1" ref="A1:C50" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
-    <sortCondition ref="A1:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+    <sortCondition ref="A1:A50"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_Secretaria" dataDxfId="2"/>
@@ -1163,16 +1140,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1280,7 +1257,7 @@
       <c r="A10" s="2">
         <v>2558</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
@@ -1331,7 +1308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>12660</v>
       </c>
@@ -1342,7 +1319,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>13763</v>
       </c>
@@ -1353,18 +1330,18 @@
         <v>13757</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>13801</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2">
         <v>19769</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>13827</v>
       </c>
@@ -1375,18 +1352,18 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>15417</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="2">
         <v>1599</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>15650</v>
       </c>
@@ -1397,7 +1374,7 @@
         <v>13760</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>15728</v>
       </c>
@@ -1408,7 +1385,7 @@
         <v>21648</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>15771</v>
       </c>
@@ -1419,152 +1396,152 @@
         <v>13757</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="2">
+    <row r="23" spans="1:3">
+      <c r="A23" s="6">
+        <v>18092</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>18120</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
         <v>3392</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="2">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>19026</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="2">
-        <v>19029</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>19033</v>
+        <v>19029</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>19035</v>
+        <v>19033</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>19035</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2">
         <v>19775</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="2">
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>19776</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>19769</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="2">
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>19777</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>19772</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="2">
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>19779</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>19774</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="2">
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>19780</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>19775</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="2">
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
         <v>19781</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="2">
-        <v>19783</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>19787</v>
+        <v>19783</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="2">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>19800</v>
+        <v>19787</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="2">
-        <v>19774</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>20853</v>
+        <v>19800</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>25</v>
@@ -1573,64 +1550,64 @@
         <v>19774</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>20919</v>
+        <v>20853</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="2">
+        <v>19774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>20919</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2">
         <v>13757</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
-      <c r="A38" s="2">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>21649</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="2">
         <v>21647</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="2">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>21662</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="2">
-        <v>19775</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15">
-      <c r="A40" s="2">
-        <v>21671</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>21674</v>
+        <v>21671</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="2">
-        <v>21647</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>21675</v>
+        <v>21674</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>30</v>
@@ -1639,95 +1616,94 @@
         <v>21647</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>21702</v>
+        <v>21675</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="2">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>21708</v>
+        <v>21702</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="2">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="9">
+        <v>21708</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="9">
         <v>4163</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15">
-      <c r="A45" s="2">
+    <row r="46" spans="1:3">
+      <c r="A46" s="9">
         <v>22581</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="B46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15">
-      <c r="A46" s="3">
+    <row r="47" spans="1:3">
+      <c r="A47" s="10">
         <v>23477</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="9">
         <v>1599</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15">
-      <c r="A47" s="3">
+    <row r="48" spans="1:3">
+      <c r="A48" s="10">
         <v>23515</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C48" s="10">
         <v>23458</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15">
-      <c r="A48" s="6">
+    <row r="49" spans="1:3">
+      <c r="A49" s="7">
         <v>99998</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="6">
-        <v>99998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="7">
-        <v>99999</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="7">
+        <v>99998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7">
         <v>99999</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15">
-      <c r="A50" s="3">
-        <v>18092</v>
-      </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15"/>
+      <c r="C50" s="7">
+        <v>99999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
